--- a/data/trans_camb/P16A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.41626796242568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.421461324574765</v>
+        <v>2.421461324574767</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.122210009801265</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.558686990456911</v>
+        <v>1.142154713090462</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9924775275093978</v>
+        <v>-0.5006328784161131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.075843764710431</v>
+        <v>-0.8162485966717764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8663240193488979</v>
+        <v>-0.2278867361502176</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09586359360241682</v>
+        <v>0.4906092234326664</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.39425899267593</v>
+        <v>-5.095727847908868</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.500916644311645</v>
+        <v>2.471269981212402</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.506485540367435</v>
+        <v>1.348811536273915</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.908537190553404</v>
+        <v>-1.95509038793362</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.765313341596531</v>
+        <v>9.836491905528312</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.280751893445937</v>
+        <v>7.42192840498967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.048648171529116</v>
+        <v>6.033555763830098</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.03369773754471</v>
+        <v>13.21416784155635</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.76502083021669</v>
+        <v>12.71999726339449</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.855347387507183</v>
+        <v>4.452878445250915</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.07949424289766</v>
+        <v>10.16009396873663</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.682100945182688</v>
+        <v>8.346904932148902</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.132955869267922</v>
+        <v>4.176913236201893</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.8018970761382124</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5683871340055954</v>
+        <v>0.568387134005596</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6045212632000881</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1870821934734813</v>
+        <v>0.1371561272518947</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.17908016437405</v>
+        <v>-0.173495108247428</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2122156487203269</v>
+        <v>-0.1884078954588475</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05227034674366543</v>
+        <v>-0.01785218640734262</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.003784787248391306</v>
+        <v>0.01474371190234987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3543190515650942</v>
+        <v>-0.3365182456650136</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2295603112470255</v>
+        <v>0.2423318403315518</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1559892203067358</v>
+        <v>0.1265575570580894</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1947264100239949</v>
+        <v>-0.1993356563075875</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.932598299581909</v>
+        <v>3.677536739220953</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.932135298671254</v>
+        <v>2.787483851977304</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.291130267960986</v>
+        <v>2.138573734656631</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.600826636799775</v>
+        <v>1.451383374104453</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.544779550325326</v>
+        <v>1.418927814706834</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.587131608426316</v>
+        <v>0.5134979442615371</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.555349916986737</v>
+        <v>1.539380534201131</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.343821815089884</v>
+        <v>1.323945248453186</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.662899172018981</v>
+        <v>0.6808082846610499</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7904210936023198</v>
+        <v>-0.4261872106139085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2044080387479736</v>
+        <v>-0.5404451667975467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.502202619952026</v>
+        <v>1.728417943411749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9681010663286024</v>
+        <v>-0.50358342222557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.756827352780918</v>
+        <v>-2.306806210177702</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.04130496245916163</v>
+        <v>-0.155959227171957</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5237386574902579</v>
+        <v>0.5574116191230072</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9982476132018845</v>
+        <v>-0.5943806453029681</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.753223951160417</v>
+        <v>1.846600877614994</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.392153128048505</v>
+        <v>5.441189268700996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.024684391576171</v>
+        <v>4.890858570213167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.816086042223611</v>
+        <v>7.955211684044933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.510567922247992</v>
+        <v>8.823300623179248</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.695670863049122</v>
+        <v>6.257258728128562</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.859326886623215</v>
+        <v>7.646210200423084</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.97659883374341</v>
+        <v>5.950393331147966</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.444879909332649</v>
+        <v>4.464609544345904</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.003786945628134</v>
+        <v>6.916515363053445</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2053007899194582</v>
+        <v>-0.1453979034575224</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06237209844836462</v>
+        <v>-0.1329039039147172</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3025477129001808</v>
+        <v>0.3082271218038815</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07728160287998978</v>
+        <v>-0.03355249342973477</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1964704454219819</v>
+        <v>-0.1584575549824709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.009482206012458057</v>
+        <v>-0.010874122175077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05013909669846487</v>
+        <v>0.05695074866869064</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1061556750341377</v>
+        <v>-0.06182873845655837</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1894607688935838</v>
+        <v>0.1877530850481827</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.201875085161552</v>
+        <v>2.185292812306188</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.269277571442349</v>
+        <v>1.81051466539953</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.235002225466847</v>
+        <v>3.052952134419766</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8088828339476752</v>
+        <v>0.8295763130833509</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5349321587118713</v>
+        <v>0.6247865962133575</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7689334997669974</v>
+        <v>0.7330434933827653</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8486245378996804</v>
+        <v>0.8580947462962468</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6438879360685701</v>
+        <v>0.6479434658233278</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9944705283782119</v>
+        <v>0.9796579307553093</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.68794252869104</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.124917346599652</v>
+        <v>7.124917346599655</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.757796593013605</v>
@@ -1092,7 +1092,7 @@
         <v>3.753833448244931</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>10.37173653895759</v>
+        <v>10.37173653895758</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.623281749295765</v>
+        <v>1.544738347730505</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.376525327815216</v>
+        <v>-1.976213746736584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.662449920721381</v>
+        <v>3.695151987693053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.345698304919909</v>
+        <v>3.729110097974159</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.496912045955748</v>
+        <v>2.279940586575361</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.016047581704997</v>
+        <v>9.303974733214764</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.526438061141906</v>
+        <v>3.871689423810717</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.340662308610828</v>
+        <v>1.225809334148466</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.531993381675593</v>
+        <v>7.510988686544397</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.48169956801024</v>
+        <v>9.35424996920529</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.748688519610573</v>
+        <v>3.697820840540313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.60650958975794</v>
+        <v>11.1025019498694</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.19075621566034</v>
+        <v>12.58377880396601</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.83166044578265</v>
+        <v>10.61030789366119</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.30509674855515</v>
+        <v>17.20531751481585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.753062164424225</v>
+        <v>9.462369194254885</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.332682552781614</v>
+        <v>6.533638566555138</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.37477363402346</v>
+        <v>13.15637410127824</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2264779197731499</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.345597767132981</v>
+        <v>2.345597767132982</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.424744125547321</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2687787762880804</v>
+        <v>0.2202058415725989</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.559367550197579</v>
+        <v>-0.5078953369506886</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.691837913996005</v>
+        <v>0.6047071290059109</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4480418090945877</v>
+        <v>0.4594168095989028</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3220655424630546</v>
+        <v>0.312811141672947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.107225767442544</v>
+        <v>1.182508620867955</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6034976806499714</v>
+        <v>0.6935372909801074</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1986167111024592</v>
+        <v>0.2207470185785891</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.283471814919553</v>
+        <v>1.299927633014645</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.411023195545127</v>
+        <v>5.265858672624227</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.132075106474125</v>
+        <v>2.38593716562762</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.36967026994172</v>
+        <v>6.758291239167714</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.145029015655714</v>
+        <v>3.480684542441448</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.782374083297403</v>
+        <v>2.748456281756448</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.564290393242421</v>
+        <v>4.889367511127754</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.954884800994913</v>
+        <v>3.062838786702668</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.982099109020605</v>
+        <v>2.18667558643678</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.250202092859896</v>
+        <v>4.307244792165274</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>7.243569400145694</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.089257391776488</v>
+        <v>4.08925739177649</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.296401057374118</v>
@@ -1306,7 +1306,7 @@
         <v>5.208994914968772</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.712188377417484</v>
+        <v>4.712188377417483</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6313658270081506</v>
+        <v>-0.1321533740403538</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.04191911401652855</v>
+        <v>0.2825287800907932</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.745605668845594</v>
+        <v>1.732632913775843</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.307882658561859</v>
+        <v>3.689836091843605</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.470873472451941</v>
+        <v>2.401293561458198</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1741605591237392</v>
+        <v>-0.1209455406368275</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.052088460499934</v>
+        <v>2.385580753542503</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.369782649206998</v>
+        <v>2.58431117765306</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.922135237870932</v>
+        <v>2.072307813419008</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.353378455093711</v>
+        <v>5.37788244520338</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.961970999640939</v>
+        <v>6.424002353823346</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.810329059529366</v>
+        <v>9.232087641105247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.82542808000343</v>
+        <v>13.651623541464</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.8230294235187</v>
+        <v>12.22853109938095</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.022923096629754</v>
+        <v>8.230908987758811</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.909766731154244</v>
+        <v>7.936334953079821</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.146081217248701</v>
+        <v>8.405498799065187</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.566509747939675</v>
+        <v>7.595467379029193</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.8170109215633335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4612322690106045</v>
+        <v>0.4612322690106049</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.8976019200291309</v>
@@ -1411,7 +1411,7 @@
         <v>0.8827888572728382</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7985930992178112</v>
+        <v>0.798593099217811</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2079682775677988</v>
+        <v>-0.147543502113948</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09417997245437863</v>
+        <v>-0.04559241516253643</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3305560717261815</v>
+        <v>0.3657929768270586</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2706760025607722</v>
+        <v>0.3396248896887125</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2283733346531513</v>
+        <v>0.2099729908914941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02432829821062959</v>
+        <v>-0.02067082216133237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2686406474209667</v>
+        <v>0.3132445924634412</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3252012254386538</v>
+        <v>0.3339877905190315</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2501819335099446</v>
+        <v>0.2896988929646763</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.918019919232844</v>
+        <v>3.240493240630025</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.48446747611546</v>
+        <v>3.563309390690726</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.721793561647075</v>
+        <v>5.452606013715152</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.920742159235632</v>
+        <v>2.230455505161992</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.712273154165697</v>
+        <v>1.803713176273704</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.165483090356764</v>
+        <v>1.229282352828723</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.66407374652988</v>
+        <v>1.636605374212584</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.786869576198223</v>
+        <v>1.747049565381139</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.609414032286046</v>
+        <v>1.626566397348959</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.832034221757093</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.7416353834700844</v>
+        <v>-0.7416353834700837</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.852711659943566</v>
@@ -1511,7 +1511,7 @@
         <v>0.6570775815943147</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.5186483893801774</v>
+        <v>0.5186483893801802</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.295207605580499</v>
@@ -1520,7 +1520,7 @@
         <v>1.756808802343461</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.125176001806486</v>
+        <v>0.1251760018064874</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.757167461423609</v>
+        <v>-6.444959817018649</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.42306827082981</v>
+        <v>-2.25320817592286</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.908679135397241</v>
+        <v>-5.247948580594594</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.008880088917286</v>
+        <v>1.958485075066831</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.983227881987521</v>
+        <v>-6.790134524062943</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.924554301333085</v>
+        <v>-6.017257176157708</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.2615453868621465</v>
+        <v>-0.3886463441527689</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.507625829669275</v>
+        <v>-2.63564120635261</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.834115499670281</v>
+        <v>-3.599486797732871</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.316435595448536</v>
+        <v>3.170085109758087</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.799717622230173</v>
+        <v>8.627148677678399</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.463835337451218</v>
+        <v>2.99632365247101</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.55264063485485</v>
+        <v>17.43102349013918</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.908098379116284</v>
+        <v>7.574836793144951</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.900186861092992</v>
+        <v>6.387145279239598</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.493497997568504</v>
+        <v>9.324027881661893</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.905713653265527</v>
+        <v>6.163270707110873</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.829272046111999</v>
+        <v>3.423700017958303</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4248898111925477</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1112674824461724</v>
+        <v>-0.1112674824461723</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6109234343745047</v>
@@ -1616,7 +1616,7 @@
         <v>0.04074249878133467</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03215911174596967</v>
+        <v>0.03215911174596983</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3752372059073572</v>
@@ -1625,7 +1625,7 @@
         <v>0.1534780357178375</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.01093560485958675</v>
+        <v>0.01093560485958688</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6690754490592429</v>
+        <v>-0.6866698351298779</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2793985649448746</v>
+        <v>-0.2913117388309133</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5273254423398297</v>
+        <v>-0.5574030411397644</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08620535419397989</v>
+        <v>0.104895831793937</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3528000342150655</v>
+        <v>-0.343096419461011</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2845329968819611</v>
+        <v>-0.2995444734876825</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02797172704464648</v>
+        <v>-0.0398171799503441</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1795142424612136</v>
+        <v>-0.2000581291684204</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2755149602005278</v>
+        <v>-0.2639317404058107</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9010117270287235</v>
+        <v>0.7635367077860179</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.821508162603789</v>
+        <v>1.935915440116589</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8741979408275198</v>
+        <v>0.7068390942873753</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.39700350937755</v>
+        <v>1.424837423477506</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5366337120305217</v>
+        <v>0.620278171163113</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6047597449166956</v>
+        <v>0.5253908007106419</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9123955143066178</v>
+        <v>0.9775666155660432</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6438926114327653</v>
+        <v>0.6846433641430496</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4083647720391434</v>
+        <v>0.3770846207674209</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>10.41739958282708</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>15.61579945072532</v>
+        <v>15.61579945072531</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.920813010371934</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.873903600310666</v>
+        <v>1.976059748126191</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.19118331231913</v>
+        <v>1.379430712827318</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.218641114899191</v>
+        <v>5.751812184344406</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.715362413895923</v>
+        <v>3.50390670029973</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>5.121807924286403</v>
+        <v>4.76065677614815</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>10.54663458596133</v>
+        <v>10.79714773103391</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.664788761952777</v>
+        <v>3.996760749874612</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.340823617486846</v>
+        <v>4.033024000499227</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>9.074450719082904</v>
+        <v>9.032807717864188</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.196528794066245</v>
+        <v>9.211807185972155</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.39362012080449</v>
+        <v>8.468672071843283</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.20840653443753</v>
+        <v>12.87469882520716</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.00326210828015</v>
+        <v>13.78815637130653</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.0697610351321</v>
+        <v>16.02576138876782</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>20.13126922804277</v>
+        <v>20.23251899345756</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.09856626753259</v>
+        <v>10.44877400016926</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.8147388699336</v>
+        <v>10.73000210974307</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>14.85831407412254</v>
+        <v>15.16213270861756</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>1.516677663478862</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>2.273516920990867</v>
+        <v>2.273516920990866</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.520952740247951</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2548296647226797</v>
+        <v>0.2908809765302033</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1716834691663039</v>
+        <v>0.1981260329312575</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.156071531279244</v>
+        <v>1.30568032971501</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.3934387544865406</v>
+        <v>0.3470124510019005</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4285011383904446</v>
+        <v>0.4909038124419604</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.019218970141144</v>
+        <v>1.099062234235084</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6159366455704255</v>
+        <v>0.6008630727446732</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.6805097047309239</v>
+        <v>0.6446272846765936</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.445272397002223</v>
+        <v>1.478277742643536</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>8.280952565195864</v>
+        <v>8.207269908065015</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>8.407717513654335</v>
+        <v>8.703332222245516</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>11.4749247891884</v>
+        <v>11.71342167113328</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.149186716963996</v>
+        <v>2.724236171657664</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.337950595775217</v>
+        <v>3.228590550918975</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>4.277762876627812</v>
+        <v>4.301830225219759</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3.149662894340727</v>
+        <v>3.053138668067099</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.294234568686867</v>
+        <v>3.338895772159394</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4.676439254600644</v>
+        <v>4.863092679915558</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>2.379446068684175</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.250923767283931</v>
+        <v>5.250923767283934</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7845705856935664</v>
+        <v>-0.7103283607456982</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.08072709469129623</v>
+        <v>-0.4318357730865892</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.951401621547728</v>
+        <v>1.062550005634495</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.513841142535931</v>
+        <v>-3.496556297762147</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.308766013229142</v>
+        <v>-1.629513917417066</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.791921148856308</v>
+        <v>2.962876382839675</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.069149899991771</v>
+        <v>-1.274637241968652</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.2578526774416018</v>
+        <v>0.05228200599067809</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.960119954166045</v>
+        <v>3.210167756323734</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.746390603450658</v>
+        <v>4.768477052068051</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.232905981406169</v>
+        <v>4.94533487969875</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.942918820569082</v>
+        <v>6.773392396415947</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.509441499542782</v>
+        <v>3.779995398362026</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.982051375273717</v>
+        <v>5.872741248003116</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.37925857349025</v>
+        <v>9.910768968097605</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.477334689373018</v>
+        <v>3.234210137976564</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.878279731415647</v>
+        <v>4.579244360934552</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.613131925881928</v>
+        <v>7.508031192615354</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.2849503174549039</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6288238317779894</v>
+        <v>0.6288238317779897</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1324871464381268</v>
+        <v>-0.1176345926622241</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02398015316680038</v>
+        <v>-0.08127860928399828</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1047677677428326</v>
+        <v>0.1560309703768524</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2659566477837701</v>
+        <v>-0.2571112166043258</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1062192958116107</v>
+        <v>-0.1232277697647334</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2038485877205678</v>
+        <v>0.2158445930019516</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1228589267049505</v>
+        <v>-0.1286636268223098</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.02064446493289194</v>
+        <v>0.005909345272027289</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3146833158121501</v>
+        <v>0.3389772112066293</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.297763971327448</v>
+        <v>1.34282293923248</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.485838282434075</v>
+        <v>1.320472691784294</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.910303600721255</v>
+        <v>1.781089135070657</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3559119035288248</v>
+        <v>0.4005603469202243</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6376504046759807</v>
+        <v>0.5704069529311591</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.09549431866989</v>
+        <v>1.008239659055102</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4742932612271731</v>
+        <v>0.4497502767389935</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6609196975020939</v>
+        <v>0.6397380643815401</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.03554917520437</v>
+        <v>1.043573716604806</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>2.334714573691543</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6.641221839108896</v>
+        <v>6.641221839108899</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.4894885190743256</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.078599939465009</v>
+        <v>-5.261099809594406</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.735528948604012</v>
+        <v>-5.928627357748844</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.803581068409431</v>
+        <v>-2.083521440350105</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.033024017174228</v>
+        <v>-1.932051707081537</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.502394755085742</v>
+        <v>-1.156163120623263</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.250191762882497</v>
+        <v>2.876992593585064</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.672736782599681</v>
+        <v>-2.68877210612736</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.577233590124107</v>
+        <v>-2.719832705691319</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.370672588632493</v>
+        <v>1.418005784621406</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5691161025922107</v>
+        <v>0.3633442936039632</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.5564983916915115</v>
+        <v>-0.5968755455803494</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.502038876842511</v>
+        <v>3.534755175652744</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.726597955393441</v>
+        <v>4.877474294206848</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.058382929894984</v>
+        <v>5.801131774627002</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>9.775837834304793</v>
+        <v>10.13009117589475</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.009564903513538</v>
+        <v>1.791927360242053</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.972729273478175</v>
+        <v>1.846651943126652</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.94690645275282</v>
+        <v>5.861985041234029</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.1775768025579889</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5051268161668889</v>
+        <v>0.5051268161668891</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.04515643121554901</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5082551768306116</v>
+        <v>-0.5168346860562749</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5778695215534214</v>
+        <v>-0.5869182761035692</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1784914823119546</v>
+        <v>-0.2030454207314508</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1369368739112917</v>
+        <v>-0.1338662566269247</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09381461101379086</v>
+        <v>-0.08248928005890387</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2087990565249301</v>
+        <v>0.1907096078490171</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.216348656886774</v>
+        <v>-0.2291540918674199</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2157426341390946</v>
+        <v>-0.2299210119565101</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1096152912166258</v>
+        <v>0.1157479904954532</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.09286902260139859</v>
+        <v>0.09379573303185554</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.07089860406947218</v>
+        <v>-0.0790835575499543</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5207981611236943</v>
+        <v>0.4946661916291438</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4092802812041436</v>
+        <v>0.4402844880456527</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5315440117222754</v>
+        <v>0.5199693732275124</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8737816246956565</v>
+        <v>0.9133853989001076</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2207586170164575</v>
+        <v>0.1871479289944024</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2050407029858274</v>
+        <v>0.1886928612768353</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6133179101887315</v>
+        <v>0.6019116633937546</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>4.03682539837888</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>6.309216883795001</v>
+        <v>6.309216883795004</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.121797281924706</v>
@@ -2376,7 +2376,7 @@
         <v>2.742744358832122</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>5.094239653000815</v>
+        <v>5.094239653000812</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.5823487988698702</v>
+        <v>0.6184963411900705</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.2555601940883919</v>
+        <v>0.2188341866996894</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.570456558918284</v>
+        <v>2.55700971866366</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.729094838576984</v>
+        <v>2.779781044432083</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.405446513924319</v>
+        <v>2.222287583228462</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.907285073765542</v>
+        <v>4.726945849348558</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.004326546162899</v>
+        <v>2.101170916310945</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.608107824978439</v>
+        <v>1.790679345964859</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.167552277989968</v>
+        <v>4.012273313755379</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.914174455213462</v>
+        <v>2.984296036048545</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.571249637161936</v>
+        <v>2.496070720777508</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.878344387554261</v>
+        <v>4.821466991925799</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.160548015201941</v>
+        <v>6.038075465615874</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5.570163756668191</v>
+        <v>5.704457617289732</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.923842962013812</v>
+        <v>7.787763915821923</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.070582135379276</v>
+        <v>4.223453280194209</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.709634076854064</v>
+        <v>3.836204268936772</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.160976536397325</v>
+        <v>5.972291431157754</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.3620215041609057</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.5658090110278469</v>
+        <v>0.5658090110278471</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3863261192486228</v>
@@ -2481,7 +2481,7 @@
         <v>0.3394178700755952</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.6304182039818057</v>
+        <v>0.6304182039818054</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1052277491570087</v>
+        <v>0.1160890543533992</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.04980652655526999</v>
+        <v>0.03267004981769421</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4741095301982741</v>
+        <v>0.4667471550428646</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2300710971833856</v>
+        <v>0.2338339805472674</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2006506830357439</v>
+        <v>0.18749428175966</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4063603284476718</v>
+        <v>0.3887481872769811</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2306407115105716</v>
+        <v>0.2461012268482822</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1881055866172614</v>
+        <v>0.210404224773522</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.4782561519264297</v>
+        <v>0.4692570055677099</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6706178842543478</v>
+        <v>0.6685297898864957</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5819694766726705</v>
+        <v>0.557314535681331</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.124090617704701</v>
+        <v>1.084420789481186</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5918998826919627</v>
+        <v>0.5772368761267443</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.5308737166014468</v>
+        <v>0.542898876887735</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.7799187835801218</v>
+        <v>0.7537594319803055</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.53168363252497</v>
+        <v>0.5511758271916906</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.4946428238166927</v>
+        <v>0.5167438327958386</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.8186221472013256</v>
+        <v>0.7825058242341411</v>
       </c>
     </row>
     <row r="58">
